--- a/spring/springioc.xlsx
+++ b/spring/springioc.xlsx
@@ -90,7 +90,30 @@
     <t>传入Spring上下文（同样这个方式也可以实现步骤4的内容，但比4更好，因为ApplicationContext是BeanFactory的子接口，有更多的实现方法）；</t>
   </si>
   <si>
-    <t>如果这个Bean关联了BeanPostProcessor接口，将会调用postProcessBeforeInitialization(Object obj, String s)方法，</t>
+    <r>
+      <t>如果这个Bean关联了BeanPostProcessor接口，将会调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>postProcessBeforeInitialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Object obj, String s)方法，</t>
+    </r>
   </si>
   <si>
     <t>BeanPostProcessor经常被用作是Bean内容的更改，并且由于这个是在Bean初始化结束时调用那个的方法，也可以被应用于内存或缓存技术；</t>
@@ -99,7 +122,30 @@
     <t>如果Bean在Spring配置文件中配置了init-method属性会自动调用其配置的初始化方法。</t>
   </si>
   <si>
-    <t>如果这个Bean关联了BeanPostProcessor接口，将会调用postProcessAfterInitialization(Object obj, String s)方法</t>
+    <r>
+      <t>如果这个Bean关联了BeanPostProcessor接口，将会调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>postProcessAfterInitialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Object obj, String s)方法</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1333,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1384,7 +1430,7 @@
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1399,7 +1445,7 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/spring/springioc.xlsx
+++ b/spring/springioc.xlsx
@@ -1379,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/spring/springioc.xlsx
+++ b/spring/springioc.xlsx
@@ -22,6 +22,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>实例化一个Bean</t>
     </r>
     <r>
@@ -40,6 +48,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>setBeanName：</t>
     </r>
     <r>
@@ -55,6 +71,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>setBeanFactory：</t>
     </r>
     <r>
@@ -73,6 +97,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>setApplicationContext传入Spring上下文</t>
     </r>
     <r>
@@ -91,6 +123,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果这个Bean关联了BeanPostProcessor接口，将会调用</t>
     </r>
     <r>
@@ -123,6 +162,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果这个Bean关联了BeanPostProcessor接口，将会调用</t>
     </r>
     <r>
@@ -149,6 +195,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当Bean</t>
     </r>
     <r>
@@ -196,6 +249,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>最后，如果这个Bean的Spring配置中</t>
     </r>
     <r>
@@ -347,11 +407,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +428,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -377,7 +460,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -392,113 +544,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,13 +571,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -528,6 +581,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,7 +599,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,13 +725,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,139 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,17 +775,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,31 +803,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,8 +841,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,156 +877,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1379,8 +1429,8 @@
   <sheetPr/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1389,28 +1439,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1420,7 +1470,7 @@
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1430,7 +1480,7 @@
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1445,17 +1495,17 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1505,7 +1555,7 @@
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/spring/springioc.xlsx
+++ b/spring/springioc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,93 @@
     <t>Spring IOC是如何实现的，如何加载Bean，如何创建单例Bean？</t>
   </si>
   <si>
-    <t>从xml读取bean的信息加载到Spring容器中，通过xml配置的id从Spring容器反射得到这个类的实例对象。</t>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xml读取bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的信息</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加载到Spring容器中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过xml配置的id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring容器反射得到这个类的实例对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>简单描述</t>
@@ -407,9 +493,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -429,7 +515,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,9 +568,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,16 +619,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,96 +657,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -581,25 +667,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,13 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,127 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,6 +870,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -799,30 +894,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -834,15 +905,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,6 +934,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -880,10 +966,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,133 +978,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1429,8 +1515,8 @@
   <sheetPr/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1515,7 +1601,7 @@
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/spring/springioc.xlsx
+++ b/spring/springioc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Spring之bean的生命周期</t>
   </si>
@@ -306,6 +306,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>从</t>
     </r>
     <r>
@@ -485,6 +492,9 @@
   </si>
   <si>
     <t>但两者之间的区别是：BeanFactory需要手动注册，而ApplicationContext则是自动注册</t>
+  </si>
+  <si>
+    <t>所有实现ApplicationContext接口的都是Spring的容器</t>
   </si>
 </sst>
 </file>
@@ -492,10 +502,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -515,9 +525,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,14 +646,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,14 +654,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,98 +667,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -667,187 +677,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,80 +868,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -958,6 +894,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -966,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,133 +988,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1515,8 +1525,8 @@
   <sheetPr/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1773,12 +1783,18 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/spring/springioc.xlsx
+++ b/spring/springioc.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="生命周期" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,12 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Spring之bean的生命周期</t>
   </si>
   <si>
     <r>
+      <t>1 实例化 Instantiation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>－－也就是我们常说的new；</t>
+    </r>
+  </si>
+  <si>
+    <t>2 属性赋值 Populate 为bean设置属性</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -30,21 +48,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>实例化一个Bean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>－－也就是我们常说的new；</t>
-    </r>
-  </si>
-  <si>
-    <t>为bean设置属性</t>
+      <t>setBeanName：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果这个Bean已经实现了BeanNameAware接口，会调用它实现的setBeanName(String)方法，此处传递的就是Spring配置文件中Bean的id值</t>
+    </r>
   </si>
   <si>
     <r>
@@ -56,18 +71,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>setBeanName：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果这个Bean已经实现了BeanNameAware接口，会调用它实现的setBeanName(String)方法，此处传递的就是Spring配置文件中Bean的id值</t>
-    </r>
+      <t>setBeanFactory：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果这个Bean已经实现了BeanFactoryAware接口，会调用它实现的setBeanFactory(setBeanFactory(BeanFactory)</t>
+    </r>
+  </si>
+  <si>
+    <t>传递的是Spring工厂自身（可以用这个方式来获取其它Bean，只需在Spring配置文件中配置一个普通的Bean就可以）；</t>
   </si>
   <si>
     <r>
@@ -79,23 +97,36 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>setBeanFactory：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果这个Bean已经实现了BeanFactoryAware接口，会调用它实现的setBeanFactory(setBeanFactory(BeanFactory)</t>
-    </r>
-  </si>
-  <si>
-    <t>传递的是Spring工厂自身（可以用这个方式来获取其它Bean，只需在Spring配置文件中配置一个普通的Bean就可以）；</t>
-  </si>
-  <si>
+      <t>setApplicationContext传入Spring上下文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：如果这个Bean已经实现了ApplicationContextAware接口，会调用setApplicationContext(ApplicationContext)方法，</t>
+    </r>
+  </si>
+  <si>
+    <t>传入Spring上下文（同样这个方式也可以实现步骤4的内容，但比4更好，因为ApplicationContext是BeanFactory的子接口，有更多的实现方法）；</t>
+  </si>
+  <si>
+    <r>
+      <t>3 初始化 Initialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 如果这个Bean关联了BeanPostProcessor接口，将会调用</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -105,21 +136,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>setApplicationContext传入Spring上下文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：如果这个Bean已经实现了ApplicationContextAware接口，会调用setApplicationContext(ApplicationContext)方法，</t>
-    </r>
-  </si>
-  <si>
-    <t>传入Spring上下文（同样这个方式也可以实现步骤4的内容，但比4更好，因为ApplicationContext是BeanFactory的子接口，有更多的实现方法）；</t>
+      <t>postProcessBeforeInitialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Object obj, String s)方法，</t>
+    </r>
+  </si>
+  <si>
+    <t>BeanPostProcessor经常被用作是Bean内容的更改，并且由于这个是在Bean初始化结束时调用那个的方法，也可以被应用于内存或缓存技术；</t>
+  </si>
+  <si>
+    <t>如果Bean在Spring配置文件中配置了init-method属性会自动调用其配置的初始化方法。</t>
   </si>
   <si>
     <r>
@@ -141,35 +175,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>postProcessBeforeInitialization</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Object obj, String s)方法，</t>
-    </r>
-  </si>
-  <si>
-    <t>BeanPostProcessor经常被用作是Bean内容的更改，并且由于这个是在Bean初始化结束时调用那个的方法，也可以被应用于内存或缓存技术；</t>
-  </si>
-  <si>
-    <t>如果Bean在Spring配置文件中配置了init-method属性会自动调用其配置的初始化方法。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果这个Bean关联了BeanPostProcessor接口，将会调用</t>
+      <t>postProcessAfterInitialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Object obj, String s)方法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当Bean</t>
     </r>
     <r>
       <rPr>
@@ -180,29 +208,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>postProcessAfterInitialization</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Object obj, String s)方法</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当Bean</t>
+      <t>不再需要时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，会经过清理阶段，</t>
     </r>
     <r>
       <rPr>
@@ -213,17 +229,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>不再需要时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，会经过清理阶段，</t>
+      <t>如果Bean实现了DisposableBean这个接口，会调用那个其实现的destroy()方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最后，如果这个Bean的Spring配置中</t>
     </r>
     <r>
       <rPr>
@@ -234,29 +262,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>如果Bean实现了DisposableBean这个接口，会调用那个其实现的destroy()方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最后，如果这个Bean的Spring配置中</t>
+      <t>配置了destroy-method属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -267,7 +283,64 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>配置了destroy-method属性</t>
+      <t>会自动调用其配置的销毁方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring IOC是如何实现的，如何加载Bean，如何创建单例Bean？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xml读取bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的信息</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加载到Spring容器中</t>
     </r>
     <r>
       <rPr>
@@ -288,7 +361,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>会自动调用其配置的销毁方法</t>
+      <t>通过xml配置的id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring容器反射得到这个类的实例对象</t>
     </r>
     <r>
       <rPr>
@@ -302,105 +396,6 @@
     </r>
   </si>
   <si>
-    <t>Spring IOC是如何实现的，如何加载Bean，如何创建单例Bean？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xml读取bean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的信息</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>加载到Spring容器中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通过xml配置的id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spring容器反射得到这个类的实例对象</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
     <t>简单描述</t>
   </si>
   <si>
@@ -494,7 +489,67 @@
     <t>但两者之间的区别是：BeanFactory需要手动注册，而ApplicationContext则是自动注册</t>
   </si>
   <si>
-    <t>所有实现ApplicationContext接口的都是Spring的容器</t>
+    <t>XXXAware</t>
+  </si>
+  <si>
+    <t>Aware类型的接口的作用就是让我们能够拿到Spring容器中的一些资源</t>
+  </si>
+  <si>
+    <t>方便从上下文中获取当前的运行环境。</t>
+  </si>
+  <si>
+    <t>如我们想得到当前的BeanFactory，我们可以让我们的实现类继承BeanFactoryAware接口，然后通过接口注入的方式得到当前容器中的BeanFactory</t>
+  </si>
+  <si>
+    <t>BeanNameAware</t>
+  </si>
+  <si>
+    <t>BeanClassLoaderAware</t>
+  </si>
+  <si>
+    <t>BeanFactoryAware</t>
+  </si>
+  <si>
+    <t>EnvironmentAware</t>
+  </si>
+  <si>
+    <t>EmbeddedValueResolverAware</t>
+  </si>
+  <si>
+    <t>ApplicationContextAware</t>
+  </si>
+  <si>
+    <t>BeanFactory和ApplicationContext的区别</t>
+  </si>
+  <si>
+    <t>BeanWrapper</t>
+  </si>
+  <si>
+    <t>createBeanInstance返回的结果</t>
+  </si>
+  <si>
+    <t>BeanWrapper相当于一个代理器，Spring委托BeanWrapperwancehngBean属性的填充工作</t>
+  </si>
+  <si>
+    <t>在Bean实例被InstantiatioonStrategy创建出来之后，容器主控程序将Bean实例通过BeanWrapper包装起来</t>
+  </si>
+  <si>
+    <t>BeanPostProcessor</t>
+  </si>
+  <si>
+    <t>经常被用作是Bean内容的更改</t>
+  </si>
+  <si>
+    <t>Spring容器通过BeanPostProcessor给了我们一个机会对Spring管理的bean进行再加工</t>
+  </si>
+  <si>
+    <t>比如：我们可以修改bean的属性，可以给bean生成一个动态代理实例</t>
+  </si>
+  <si>
+    <t>postProcessBeforeInitialization</t>
+  </si>
+  <si>
+    <t>postProcessAfterInitialization</t>
   </si>
 </sst>
 </file>
@@ -503,8 +558,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -525,7 +580,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,6 +610,106 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,128 +722,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -677,187 +732,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,6 +923,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -890,81 +1019,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,10 +1031,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,19 +1043,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,112 +1064,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1525,8 +1580,8 @@
   <sheetPr/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1576,7 +1631,7 @@
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1781,17 +1836,117 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/spring/springioc.xlsx
+++ b/spring/springioc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Spring之bean的生命周期</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1 实例化 Instantiation</t>
     </r>
     <r>
@@ -40,6 +48,19 @@
   </si>
   <si>
     <r>
+      <t>setBeanName：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果这个Bean已经实现了</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -48,20 +69,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>setBeanName：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果这个Bean已经实现了BeanNameAware接口，会调用它实现的setBeanName(String)方法，此处传递的就是Spring配置文件中Bean的id值</t>
-    </r>
-  </si>
-  <si>
+      <t>BeanNameAware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接口，会调用它实现的setBeanName(String)方法，此处传递的就是Spring配置文件中Bean的id值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>setBeanFactory：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果这个Bean已经实现了</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -71,17 +105,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>setBeanFactory：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果这个Bean已经实现了BeanFactoryAware接口，会调用它实现的setBeanFactory(setBeanFactory(BeanFactory)</t>
+      <t>BeanFactoryAware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接口，会调用它实现的setBeanFactory(setBeanFactory(BeanFactory)</t>
     </r>
   </si>
   <si>
@@ -115,6 +149,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3 初始化 Initialization</t>
     </r>
     <r>
@@ -190,14 +232,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当Bean</t>
+      <t>4 销毁Bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 当Bean</t>
     </r>
     <r>
       <rPr>
@@ -297,6 +342,18 @@
     </r>
   </si>
   <si>
+    <t>XXXAware</t>
+  </si>
+  <si>
+    <t>Aware类型的接口的作用就是让我们能够拿到Spring容器中的一些资源</t>
+  </si>
+  <si>
+    <t>方便从上下文中获取当前的运行环境。</t>
+  </si>
+  <si>
+    <t>如我们想得到当前的BeanFactory，我们可以让我们的实现类继承BeanFactoryAware接口，然后通过接口注入的方式得到当前容器中的BeanFactory</t>
+  </si>
+  <si>
     <t>Spring IOC是如何实现的，如何加载Bean，如何创建单例Bean？</t>
   </si>
   <si>
@@ -487,18 +544,6 @@
   </si>
   <si>
     <t>但两者之间的区别是：BeanFactory需要手动注册，而ApplicationContext则是自动注册</t>
-  </si>
-  <si>
-    <t>XXXAware</t>
-  </si>
-  <si>
-    <t>Aware类型的接口的作用就是让我们能够拿到Spring容器中的一些资源</t>
-  </si>
-  <si>
-    <t>方便从上下文中获取当前的运行环境。</t>
-  </si>
-  <si>
-    <t>如我们想得到当前的BeanFactory，我们可以让我们的实现类继承BeanFactoryAware接口，然后通过接口注入的方式得到当前容器中的BeanFactory</t>
   </si>
   <si>
     <t>BeanNameAware</t>
@@ -557,10 +602,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -580,15 +625,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,66 +633,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,10 +647,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,15 +685,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,6 +707,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -717,7 +723,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,31 +777,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,79 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,67 +957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,6 +968,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -937,6 +1008,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,11 +1038,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,8 +1048,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,39 +1068,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1031,10 +1076,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,133 +1088,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1578,13 +1623,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -1651,7 +1696,7 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1660,169 +1705,189 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1838,30 +1903,30 @@
   <sheetPr/>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:2">
